--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Bmp2-Bmpr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Bmp2-Bmpr2.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.423951666666667</v>
+        <v>2.370286</v>
       </c>
       <c r="H2">
-        <v>16.271855</v>
+        <v>7.110858</v>
       </c>
       <c r="I2">
-        <v>0.4774188439413272</v>
+        <v>0.3026841782318013</v>
       </c>
       <c r="J2">
-        <v>0.4774188439413272</v>
+        <v>0.3026841782318014</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>43.69574966666666</v>
+        <v>46.29121633333333</v>
       </c>
       <c r="N2">
-        <v>131.087249</v>
+        <v>138.873649</v>
       </c>
       <c r="O2">
-        <v>0.3365063034544351</v>
+        <v>0.3133663986859022</v>
       </c>
       <c r="P2">
-        <v>0.3365063034544351</v>
+        <v>0.3133663986859022</v>
       </c>
       <c r="Q2">
-        <v>237.0036342307661</v>
+        <v>109.7234219978713</v>
       </c>
       <c r="R2">
-        <v>2133.032708076895</v>
+        <v>987.5107979808421</v>
       </c>
       <c r="S2">
-        <v>0.1606544503741858</v>
+        <v>0.09485105087170134</v>
       </c>
       <c r="T2">
-        <v>0.1606544503741858</v>
+        <v>0.09485105087170136</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.423951666666667</v>
+        <v>2.370286</v>
       </c>
       <c r="H3">
-        <v>16.271855</v>
+        <v>7.110858</v>
       </c>
       <c r="I3">
-        <v>0.4774188439413272</v>
+        <v>0.3026841782318013</v>
       </c>
       <c r="J3">
-        <v>0.4774188439413272</v>
+        <v>0.3026841782318014</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>46.81622333333334</v>
+        <v>46.81622333333333</v>
       </c>
       <c r="N3">
         <v>140.44867</v>
       </c>
       <c r="O3">
-        <v>0.3605374521727267</v>
+        <v>0.3169204109998198</v>
       </c>
       <c r="P3">
-        <v>0.3605374521727267</v>
+        <v>0.3169204109998198</v>
       </c>
       <c r="Q3">
-        <v>253.9289325758723</v>
+        <v>110.9678387398733</v>
       </c>
       <c r="R3">
-        <v>2285.36039318285</v>
+        <v>998.71054865886</v>
       </c>
       <c r="S3">
-        <v>0.1721273736138547</v>
+        <v>0.09592679416836518</v>
       </c>
       <c r="T3">
-        <v>0.1721273736138547</v>
+        <v>0.09592679416836519</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.423951666666667</v>
+        <v>2.370286</v>
       </c>
       <c r="H4">
-        <v>16.271855</v>
+        <v>7.110858</v>
       </c>
       <c r="I4">
-        <v>0.4774188439413272</v>
+        <v>0.3026841782318013</v>
       </c>
       <c r="J4">
-        <v>0.4774188439413272</v>
+        <v>0.3026841782318014</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>21.25020333333334</v>
+        <v>38.53544233333333</v>
       </c>
       <c r="N4">
-        <v>63.75061</v>
+        <v>115.606327</v>
       </c>
       <c r="O4">
-        <v>0.1636504105297484</v>
+        <v>0.2608640200510233</v>
       </c>
       <c r="P4">
-        <v>0.1636504105297484</v>
+        <v>0.2608640200510233</v>
       </c>
       <c r="Q4">
-        <v>115.2600757868389</v>
+        <v>91.34001946650733</v>
       </c>
       <c r="R4">
-        <v>1037.34068208155</v>
+        <v>822.060175198566</v>
       </c>
       <c r="S4">
-        <v>0.07812978980563606</v>
+        <v>0.07895941153938814</v>
       </c>
       <c r="T4">
-        <v>0.07812978980563606</v>
+        <v>0.07895941153938815</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.423951666666667</v>
+        <v>2.370286</v>
       </c>
       <c r="H5">
-        <v>16.271855</v>
+        <v>7.110858</v>
       </c>
       <c r="I5">
-        <v>0.4774188439413272</v>
+        <v>0.3026841782318013</v>
       </c>
       <c r="J5">
-        <v>0.4774188439413272</v>
+        <v>0.3026841782318014</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>18.08903066666667</v>
+        <v>16.07945366666667</v>
       </c>
       <c r="N5">
-        <v>54.26709200000001</v>
+        <v>48.238361</v>
       </c>
       <c r="O5">
-        <v>0.1393058338430899</v>
+        <v>0.1088491702632547</v>
       </c>
       <c r="P5">
-        <v>0.1393058338430899</v>
+        <v>0.1088491702632547</v>
       </c>
       <c r="Q5">
-        <v>98.11402803285112</v>
+        <v>38.11290391374867</v>
       </c>
       <c r="R5">
-        <v>883.02625229566</v>
+        <v>343.016135223738</v>
       </c>
       <c r="S5">
-        <v>0.06650723014765059</v>
+        <v>0.03294692165234669</v>
       </c>
       <c r="T5">
-        <v>0.06650723014765059</v>
+        <v>0.03294692165234669</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>4.750513</v>
       </c>
       <c r="I6">
-        <v>0.1393808158066948</v>
+        <v>0.2022126055089961</v>
       </c>
       <c r="J6">
-        <v>0.1393808158066948</v>
+        <v>0.2022126055089961</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>43.69574966666666</v>
+        <v>46.29121633333333</v>
       </c>
       <c r="N6">
-        <v>131.087249</v>
+        <v>138.873649</v>
       </c>
       <c r="O6">
-        <v>0.3365063034544351</v>
+        <v>0.3133663986859022</v>
       </c>
       <c r="P6">
-        <v>0.3365063034544351</v>
+        <v>0.3133663986859022</v>
       </c>
       <c r="Q6">
-        <v>69.19240894541521</v>
+        <v>73.3023416591041</v>
       </c>
       <c r="R6">
-        <v>622.7316805087369</v>
+        <v>659.721074931937</v>
       </c>
       <c r="S6">
-        <v>0.04690252309957436</v>
+        <v>0.06336663595724715</v>
       </c>
       <c r="T6">
-        <v>0.04690252309957437</v>
+        <v>0.06336663595724715</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>4.750513</v>
       </c>
       <c r="I7">
-        <v>0.1393808158066948</v>
+        <v>0.2022126055089961</v>
       </c>
       <c r="J7">
-        <v>0.1393808158066948</v>
+        <v>0.2022126055089961</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>46.81622333333334</v>
+        <v>46.81622333333333</v>
       </c>
       <c r="N7">
         <v>140.44867</v>
       </c>
       <c r="O7">
-        <v>0.3605374521727267</v>
+        <v>0.3169204109998198</v>
       </c>
       <c r="P7">
-        <v>0.3605374521727267</v>
+        <v>0.3169204109998198</v>
       </c>
       <c r="Q7">
-        <v>74.13369251863445</v>
+        <v>74.13369251863443</v>
       </c>
       <c r="R7">
-        <v>667.20323266771</v>
+        <v>667.2032326677099</v>
       </c>
       <c r="S7">
-        <v>0.05025200421270186</v>
+        <v>0.06408530204725546</v>
       </c>
       <c r="T7">
-        <v>0.05025200421270187</v>
+        <v>0.06408530204725547</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>4.750513</v>
       </c>
       <c r="I8">
-        <v>0.1393808158066948</v>
+        <v>0.2022126055089961</v>
       </c>
       <c r="J8">
-        <v>0.1393808158066948</v>
+        <v>0.2022126055089961</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>21.25020333333334</v>
+        <v>38.53544233333333</v>
       </c>
       <c r="N8">
-        <v>63.75061</v>
+        <v>115.606327</v>
       </c>
       <c r="O8">
-        <v>0.1636504105297484</v>
+        <v>0.2608640200510233</v>
       </c>
       <c r="P8">
-        <v>0.1636504105297484</v>
+        <v>0.2608640200510233</v>
       </c>
       <c r="Q8">
-        <v>33.64978906254778</v>
+        <v>61.02103992175009</v>
       </c>
       <c r="R8">
-        <v>302.84810156293</v>
+        <v>549.1893592957509</v>
       </c>
       <c r="S8">
-        <v>0.02280972772673685</v>
+        <v>0.05274999317806843</v>
       </c>
       <c r="T8">
-        <v>0.02280972772673685</v>
+        <v>0.05274999317806844</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>4.750513</v>
       </c>
       <c r="I9">
-        <v>0.1393808158066948</v>
+        <v>0.2022126055089961</v>
       </c>
       <c r="J9">
-        <v>0.1393808158066948</v>
+        <v>0.2022126055089961</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>18.08903066666667</v>
+        <v>16.07945366666667</v>
       </c>
       <c r="N9">
-        <v>54.26709200000001</v>
+        <v>48.238361</v>
       </c>
       <c r="O9">
-        <v>0.1393058338430899</v>
+        <v>0.1088491702632547</v>
       </c>
       <c r="P9">
-        <v>0.1393058338430899</v>
+        <v>0.1088491702632547</v>
       </c>
       <c r="Q9">
-        <v>28.64405844646623</v>
+        <v>25.46188455879922</v>
       </c>
       <c r="R9">
-        <v>257.796526018196</v>
+        <v>229.156961029193</v>
       </c>
       <c r="S9">
-        <v>0.01941656076768174</v>
+        <v>0.02201067432642508</v>
       </c>
       <c r="T9">
-        <v>0.01941656076768174</v>
+        <v>0.02201067432642508</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.687463666666666</v>
+        <v>2.286703333333333</v>
       </c>
       <c r="H10">
-        <v>11.062391</v>
+        <v>6.860109999999999</v>
       </c>
       <c r="I10">
-        <v>0.3245723319466</v>
+        <v>0.2920107190904054</v>
       </c>
       <c r="J10">
-        <v>0.3245723319466</v>
+        <v>0.2920107190904054</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>43.69574966666666</v>
+        <v>46.29121633333333</v>
       </c>
       <c r="N10">
-        <v>131.087249</v>
+        <v>138.873649</v>
       </c>
       <c r="O10">
-        <v>0.3365063034544351</v>
+        <v>0.3133663986859022</v>
       </c>
       <c r="P10">
-        <v>0.3365063034544351</v>
+        <v>0.3133663986859022</v>
       </c>
       <c r="Q10">
-        <v>161.1264892835954</v>
+        <v>105.8542786934878</v>
       </c>
       <c r="R10">
-        <v>1450.138403552359</v>
+        <v>952.6885082413899</v>
       </c>
       <c r="S10">
-        <v>0.1092206356269362</v>
+        <v>0.09150634741904098</v>
       </c>
       <c r="T10">
-        <v>0.1092206356269362</v>
+        <v>0.09150634741904098</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.687463666666666</v>
+        <v>2.286703333333333</v>
       </c>
       <c r="H11">
-        <v>11.062391</v>
+        <v>6.860109999999999</v>
       </c>
       <c r="I11">
-        <v>0.3245723319466</v>
+        <v>0.2920107190904054</v>
       </c>
       <c r="J11">
-        <v>0.3245723319466</v>
+        <v>0.2920107190904054</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,28 +1113,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>46.81622333333334</v>
+        <v>46.81622333333333</v>
       </c>
       <c r="N11">
         <v>140.44867</v>
       </c>
       <c r="O11">
-        <v>0.3605374521727267</v>
+        <v>0.3169204109998198</v>
       </c>
       <c r="P11">
-        <v>0.3605374521727267</v>
+        <v>0.3169204109998198</v>
       </c>
       <c r="Q11">
-        <v>172.6331225522189</v>
+        <v>107.0548139504111</v>
       </c>
       <c r="R11">
-        <v>1553.69810296997</v>
+        <v>963.4933255536998</v>
       </c>
       <c r="S11">
-        <v>0.1170204816057877</v>
+        <v>0.09254415711048421</v>
       </c>
       <c r="T11">
-        <v>0.1170204816057877</v>
+        <v>0.09254415711048421</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.687463666666666</v>
+        <v>2.286703333333333</v>
       </c>
       <c r="H12">
-        <v>11.062391</v>
+        <v>6.860109999999999</v>
       </c>
       <c r="I12">
-        <v>0.3245723319466</v>
+        <v>0.2920107190904054</v>
       </c>
       <c r="J12">
-        <v>0.3245723319466</v>
+        <v>0.2920107190904054</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>21.25020333333334</v>
+        <v>38.53544233333333</v>
       </c>
       <c r="N12">
-        <v>63.75061</v>
+        <v>115.606327</v>
       </c>
       <c r="O12">
-        <v>0.1636504105297484</v>
+        <v>0.2608640200510233</v>
       </c>
       <c r="P12">
-        <v>0.1636504105297484</v>
+        <v>0.2608640200510233</v>
       </c>
       <c r="Q12">
-        <v>78.35935270094556</v>
+        <v>88.11912443510776</v>
       </c>
       <c r="R12">
-        <v>705.23417430851</v>
+        <v>793.0721199159698</v>
       </c>
       <c r="S12">
-        <v>0.05311639536965884</v>
+        <v>0.07617509007991326</v>
       </c>
       <c r="T12">
-        <v>0.05311639536965885</v>
+        <v>0.07617509007991326</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.687463666666666</v>
+        <v>2.286703333333333</v>
       </c>
       <c r="H13">
-        <v>11.062391</v>
+        <v>6.860109999999999</v>
       </c>
       <c r="I13">
-        <v>0.3245723319466</v>
+        <v>0.2920107190904054</v>
       </c>
       <c r="J13">
-        <v>0.3245723319466</v>
+        <v>0.2920107190904054</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>18.08903066666667</v>
+        <v>16.07945366666667</v>
       </c>
       <c r="N13">
-        <v>54.26709200000001</v>
+        <v>48.238361</v>
       </c>
       <c r="O13">
-        <v>0.1393058338430899</v>
+        <v>0.1088491702632547</v>
       </c>
       <c r="P13">
-        <v>0.1393058338430899</v>
+        <v>0.1088491702632547</v>
       </c>
       <c r="Q13">
-        <v>66.70264334855246</v>
+        <v>36.76894029774555</v>
       </c>
       <c r="R13">
-        <v>600.3237901369721</v>
+        <v>330.9204626797099</v>
       </c>
       <c r="S13">
-        <v>0.04521481934421726</v>
+        <v>0.03178512448096699</v>
       </c>
       <c r="T13">
-        <v>0.04521481934421727</v>
+        <v>0.03178512448096699</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.6660723333333334</v>
+        <v>1.590394666666667</v>
       </c>
       <c r="H14">
-        <v>1.998217</v>
+        <v>4.771184</v>
       </c>
       <c r="I14">
-        <v>0.05862800830537804</v>
+        <v>0.2030924971687972</v>
       </c>
       <c r="J14">
-        <v>0.05862800830537804</v>
+        <v>0.2030924971687972</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>43.69574966666666</v>
+        <v>46.29121633333333</v>
       </c>
       <c r="N14">
-        <v>131.087249</v>
+        <v>138.873649</v>
       </c>
       <c r="O14">
-        <v>0.3365063034544351</v>
+        <v>0.3133663986859022</v>
       </c>
       <c r="P14">
-        <v>0.3365063034544351</v>
+        <v>0.3133663986859022</v>
       </c>
       <c r="Q14">
-        <v>29.10452993722589</v>
+        <v>73.62130357004622</v>
       </c>
       <c r="R14">
-        <v>261.940769435033</v>
+        <v>662.5917321304159</v>
       </c>
       <c r="S14">
-        <v>0.01972869435373868</v>
+        <v>0.06364236443791277</v>
       </c>
       <c r="T14">
-        <v>0.01972869435373868</v>
+        <v>0.06364236443791277</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.6660723333333334</v>
+        <v>1.590394666666667</v>
       </c>
       <c r="H15">
-        <v>1.998217</v>
+        <v>4.771184</v>
       </c>
       <c r="I15">
-        <v>0.05862800830537804</v>
+        <v>0.2030924971687972</v>
       </c>
       <c r="J15">
-        <v>0.05862800830537804</v>
+        <v>0.2030924971687972</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1361,28 +1361,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>46.81622333333334</v>
+        <v>46.81622333333333</v>
       </c>
       <c r="N15">
         <v>140.44867</v>
       </c>
       <c r="O15">
-        <v>0.3605374521727267</v>
+        <v>0.3169204109998198</v>
       </c>
       <c r="P15">
-        <v>0.3605374521727267</v>
+        <v>0.3169204109998198</v>
       </c>
       <c r="Q15">
-        <v>31.18299111348778</v>
+        <v>74.45627190280889</v>
       </c>
       <c r="R15">
-        <v>280.6469200213901</v>
+        <v>670.1064471252799</v>
       </c>
       <c r="S15">
-        <v>0.02113759274038246</v>
+        <v>0.06436415767371494</v>
       </c>
       <c r="T15">
-        <v>0.02113759274038246</v>
+        <v>0.06436415767371494</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.6660723333333334</v>
+        <v>1.590394666666667</v>
       </c>
       <c r="H16">
-        <v>1.998217</v>
+        <v>4.771184</v>
       </c>
       <c r="I16">
-        <v>0.05862800830537804</v>
+        <v>0.2030924971687972</v>
       </c>
       <c r="J16">
-        <v>0.05862800830537804</v>
+        <v>0.2030924971687972</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>21.25020333333334</v>
+        <v>38.53544233333333</v>
       </c>
       <c r="N16">
-        <v>63.75061</v>
+        <v>115.606327</v>
       </c>
       <c r="O16">
-        <v>0.1636504105297484</v>
+        <v>0.2608640200510233</v>
       </c>
       <c r="P16">
-        <v>0.1636504105297484</v>
+        <v>0.2608640200510233</v>
       </c>
       <c r="Q16">
-        <v>14.15417251804111</v>
+        <v>61.28656196457421</v>
       </c>
       <c r="R16">
-        <v>127.38755266237</v>
+        <v>551.5790576811679</v>
       </c>
       <c r="S16">
-        <v>0.009594497627716612</v>
+        <v>0.05297952525365351</v>
       </c>
       <c r="T16">
-        <v>0.009594497627716612</v>
+        <v>0.05297952525365351</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.6660723333333334</v>
+        <v>1.590394666666667</v>
       </c>
       <c r="H17">
-        <v>1.998217</v>
+        <v>4.771184</v>
       </c>
       <c r="I17">
-        <v>0.05862800830537804</v>
+        <v>0.2030924971687972</v>
       </c>
       <c r="J17">
-        <v>0.05862800830537804</v>
+        <v>0.2030924971687972</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>18.08903066666667</v>
+        <v>16.07945366666667</v>
       </c>
       <c r="N17">
-        <v>54.26709200000001</v>
+        <v>48.238361</v>
       </c>
       <c r="O17">
-        <v>0.1393058338430899</v>
+        <v>0.1088491702632547</v>
       </c>
       <c r="P17">
-        <v>0.1393058338430899</v>
+        <v>0.1088491702632547</v>
       </c>
       <c r="Q17">
-        <v>12.04860286388489</v>
+        <v>25.57267735438044</v>
       </c>
       <c r="R17">
-        <v>108.437425774964</v>
+        <v>230.154096189424</v>
       </c>
       <c r="S17">
-        <v>0.008167223583540285</v>
+        <v>0.02210644980351598</v>
       </c>
       <c r="T17">
-        <v>0.008167223583540285</v>
+        <v>0.02210644980351598</v>
       </c>
     </row>
   </sheetData>
